--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.120919.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.120919.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6035,12 +6035,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6837,12 +6837,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6879,12 +6879,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7215,12 +7215,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7341,12 +7341,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7929,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8139,12 +8139,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9399,12 +9399,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9567,12 +9567,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10495,12 +10495,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10537,12 +10537,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10915,12 +10915,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11419,12 +11419,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11591,12 +11591,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11717,12 +11717,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11843,12 +11843,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12347,12 +12347,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12431,12 +12431,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12851,12 +12851,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13611,12 +13611,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13951,12 +13951,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13993,12 +13993,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14161,12 +14161,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14329,12 +14329,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14711,12 +14711,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14837,12 +14837,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15005,12 +15005,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15299,12 +15299,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15593,12 +15593,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16059,12 +16059,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16311,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16395,12 +16395,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17193,12 +17193,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17235,12 +17235,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17445,12 +17445,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17743,12 +17743,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17827,12 +17827,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18079,12 +18079,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18335,12 +18335,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18419,12 +18419,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18503,12 +18503,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18713,12 +18713,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
